--- a/各部门利润表汇总/事业10部.xlsx
+++ b/各部门利润表汇总/事业10部.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -67,6 +67,27 @@
     </border>
     <border>
       <left style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
